--- a/microsoft-365/managed-desktop/get-ready/downloads/SCEP-certificate-template.xlsx
+++ b/microsoft-365/managed-desktop/get-ready/downloads/SCEP-certificate-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamshep\OneDrive - Microsoft\MMD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaimeo\microsoft-365-docs-pr\microsoft-365\managed-desktop\get-ready\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{C118B873-6458-4A1E-84BC-C0859A9451F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C1F23841-3FB3-4A66-87AE-4DD0EE18133C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE274DC-5C28-48A4-9807-82B03D1A5238}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="22485" windowHeight="14400" xr2:uid="{29973037-B366-4275-B08D-55542FFD3B74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{29973037-B366-4275-B08D-55542FFD3B74}"/>
   </bookViews>
   <sheets>
     <sheet name="SCEP Cert Request Template" sheetId="1" r:id="rId1"/>
@@ -265,9 +265,6 @@
     </r>
   </si>
   <si>
-    <t>SCEP Certificate Requirements Template</t>
-  </si>
-  <si>
     <t xml:space="preserve">Configuration Option </t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>SCEP Server URLs</t>
+  </si>
+  <si>
+    <t>SCEP certificate requirements template</t>
   </si>
   <si>
     <r>
@@ -346,10 +346,10 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-If a SCEP certificate is needed for MMD devices, fill out this template to collect the required details.  
-Once the details are completed, create the required certificate profile using Microsoft Intune.   For more details on certificates in Intune:  
-https://docs.microsoft.com/en-us/intune/certificates-scep-configure#create-a-scep-certificate-profile
-Test the policy against a test machine and once validated submit a request to the Microsoft Managed Desktop operations team through the Microsoft Managed Desktop portal to have the policy distributed to your Microsoft Managed Desktop devices. 
+If a SCEP certificate is needed for Microsoft Managed Desktop devices, fill out this template to collect the required details.  
+Once the details are completed, create the required certificate profile using Microsoft Intune. For more details on certificates in Intune:  
+https://docs.microsoft.com/intune/certificates-scep-configure#create-a-scep-certificate-profile
+Test the policy against a test device and once validated submit a request to Microsoft Managed Desktop Operations through the Microsoft Managed Desktop portal to have the policy distributed to your Microsoft Managed Desktop devices. 
 </t>
     </r>
     <r>
@@ -371,10 +371,10 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-Before a certificate can be requested, a certificate distribution infrastructure must be configured within your Intune environment. 
-For more details, see  https://docs.microsoft.com/en-gb/intune/certificates-configure
-In addition, the required Root and Intermediate certificates from your CA must also be imported into Intune so they are available to be used as part of this certificate profile setup process. 
-For more details, see:  https://docs.microsoft.com/en-us/intune/certificates-configure#step-3-create-trusted-certificate-profiles</t>
+Before you can request a PKCS certificate, you must set up a PKCS certificate distribution infrastructure in your Intune environment. 
+For more details see  https://docs.microsoft.com/intune/certificates-configure
+Also, you must import the required Root and Intermediate certificates from your CA into Intune so they are available for this certificate profile setup process. 
+For more details, see:  https://docs.microsoft.com/intune/certificates-configure#step-3-create-trusted-certificate-profiles</t>
     </r>
   </si>
 </sst>
@@ -997,51 +997,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC9385A-E925-47B1-BD5F-9850A97989AC}">
   <dimension ref="A3:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9:M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.3984375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="1"/>
+    <col min="4" max="4" width="60.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>20</v>
@@ -1053,7 +1053,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="19"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1065,13 +1065,13 @@
       <c r="L10" s="21"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
@@ -1081,7 +1081,7 @@
       <c r="L11" s="21"/>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1093,10 +1093,10 @@
       <c r="L12" s="21"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="12"/>
@@ -1108,7 +1108,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="22"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
@@ -1120,9 +1120,9 @@
       <c r="L14" s="21"/>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="12"/>
@@ -1134,7 +1134,7 @@
       <c r="L15" s="21"/>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="4"/>
       <c r="D16" s="12"/>
@@ -1146,9 +1146,9 @@
       <c r="L16" s="21"/>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="12"/>
@@ -1160,7 +1160,7 @@
       <c r="L17" s="21"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="4"/>
       <c r="D18" s="12"/>
@@ -1172,9 +1172,9 @@
       <c r="L18" s="21"/>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="12"/>
@@ -1186,7 +1186,7 @@
       <c r="L19" s="21"/>
       <c r="M19" s="22"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="5"/>
       <c r="D20" s="12"/>
@@ -1198,9 +1198,9 @@
       <c r="L20" s="21"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="12"/>
@@ -1212,7 +1212,7 @@
       <c r="L21" s="21"/>
       <c r="M21" s="22"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="5"/>
       <c r="D22" s="12"/>
@@ -1224,9 +1224,9 @@
       <c r="L22" s="21"/>
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="12"/>
@@ -1238,7 +1238,7 @@
       <c r="L23" s="21"/>
       <c r="M23" s="22"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="12"/>
@@ -1250,9 +1250,9 @@
       <c r="L24" s="21"/>
       <c r="M24" s="22"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="12"/>
@@ -1264,7 +1264,7 @@
       <c r="L25" s="21"/>
       <c r="M25" s="22"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="12"/>
@@ -1276,9 +1276,9 @@
       <c r="L26" s="21"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="12"/>
@@ -1290,7 +1290,7 @@
       <c r="L27" s="21"/>
       <c r="M27" s="22"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="12"/>
@@ -1302,9 +1302,9 @@
       <c r="L28" s="21"/>
       <c r="M28" s="22"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="12"/>
@@ -1316,7 +1316,7 @@
       <c r="L29" s="21"/>
       <c r="M29" s="22"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
       <c r="D30" s="12"/>
@@ -1328,13 +1328,13 @@
       <c r="L30" s="21"/>
       <c r="M30" s="22"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="21"/>
@@ -1344,7 +1344,7 @@
       <c r="L31" s="21"/>
       <c r="M31" s="22"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="5"/>
       <c r="D32" s="12"/>
@@ -1356,9 +1356,9 @@
       <c r="L32" s="21"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="12"/>
@@ -1370,7 +1370,7 @@
       <c r="L33" s="21"/>
       <c r="M33" s="22"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="5"/>
       <c r="D34" s="12"/>
@@ -1382,9 +1382,9 @@
       <c r="L34" s="21"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="12"/>
@@ -1396,7 +1396,7 @@
       <c r="L35" s="21"/>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="5"/>
       <c r="D36" s="12"/>
@@ -1408,9 +1408,9 @@
       <c r="L36" s="21"/>
       <c r="M36" s="22"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="12"/>
@@ -1422,7 +1422,7 @@
       <c r="L37" s="21"/>
       <c r="M37" s="22"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
@@ -1434,7 +1434,7 @@
       <c r="L38" s="24"/>
       <c r="M38" s="25"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
